--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3731429.401625228</v>
+        <v>3834841.137589307</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498523</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7440346.413708601</v>
+        <v>7405316.692435846</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>96.44868378079322</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>270.6799298994374</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.75769145492336</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>132.5373350448693</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>184.4530101301283</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>254.6526724167736</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,10 +1104,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>202.9141261154826</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>177.8669937341382</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>201.609065134126</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>339.0189008308752</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>36.15999212057531</v>
       </c>
       <c r="S10" t="n">
-        <v>16.07545940439524</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710093</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1768,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
-        <v>211.1474991249039</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.17988875728673</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>71.60395572454195</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>100.5858322992705</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>243.1373908222617</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>61.17550840396338</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>107.5034532829755</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265261</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>177.1513727793246</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652613</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>71.79687029691084</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445515</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>41.33703994143053</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652613</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>24.83266606353155</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1636.624422581789</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4331,7 +4333,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4342,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4361,19 +4363,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2786.829352882803</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2413.363594621723</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y2" t="n">
-        <v>2023.224262645911</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>1909.743070445501</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>1909.743070445501</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>1759.626431033165</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>1611.713337450772</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3191.729725604252</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3191.729725604252</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>2902.626858729896</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621292</v>
+        <v>2647.942370524009</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251686</v>
+        <v>2358.525200487048</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271513</v>
+        <v>2130.535649589031</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836212</v>
+        <v>1909.743070445501</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3028.99898128765</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.936093944079</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2345.167438673965</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>479.4537238215122</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C7" t="n">
-        <v>479.4537238215122</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1632.500327093008</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1632.500327093008</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1377.815838887121</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995254</v>
+        <v>1088.39866885016</v>
       </c>
       <c r="X7" t="n">
-        <v>700.2463029650423</v>
+        <v>860.4091179521432</v>
       </c>
       <c r="Y7" t="n">
-        <v>479.4537238215122</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1636.624422581789</v>
+        <v>1892.963660013483</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1524.001143073071</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1524.001143073071</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1138.212890474827</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>727.2269856852192</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>312.1545355302157</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2413.363594621723</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2023.224262645911</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.6939999491682</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1890.769303522255</v>
       </c>
       <c r="S10" t="n">
-        <v>1821.226253063803</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="T10" t="n">
-        <v>1821.226253063803</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U10" t="n">
-        <v>1821.226253063803</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V10" t="n">
-        <v>1566.541764857916</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W10" t="n">
-        <v>1277.124594820955</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X10" t="n">
-        <v>1049.135043922938</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y10" t="n">
-        <v>828.3424647794079</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5266,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438167</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1983.7822433412</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,19 +5600,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021787</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756786</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996073</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176862</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,31 +5764,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254209</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2345.361232772917</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2125.759767795858</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1836.684541140056</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V22" t="n">
-        <v>1582.000052934169</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1292.582882897208</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.593331999191</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8007528556607</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>96.85392869224876</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>96.85392869224876</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6178,19 +6180,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192571</v>
@@ -6227,7 +6229,7 @@
         <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,28 +6247,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6311,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459586</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180517</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>599.6019060180517</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>451.6888124356586</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761984</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6482,19 +6484,19 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913854</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,25 +6718,25 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.388512467613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192633</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6974,13 +6976,13 @@
         <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>840.8417932021788</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996073</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.972636491141</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>800.5007694647286</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>631.5645865368217</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>481.4479471244859</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>333.5348535420928</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>982.1492342949683</v>
       </c>
     </row>
     <row r="38">
@@ -7169,19 +7171,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355936</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.740023695907</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384023</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>417.9651836029407</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898186995</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7813,7 +7815,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,7 +7824,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
@@ -7831,25 +7833,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
-        <v>6.257951202384362</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>180.5336875992861</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>80.44045370237413</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>43.04708356698248</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>78.25894333073141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>106.0713126946645</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>37.91759473995572</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>41.43328057277014</v>
       </c>
     </row>
     <row r="32">
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194137</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>73.62417772602041</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>107.2784330767818</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>123.7828069546808</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637737.4940600011</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>637737.4940600011</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>637737.494060001</v>
+        <v>637737.4940600011</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637737.494060001</v>
+        <v>637737.4940600011</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>648506.250945066</v>
+        <v>637737.4940600011</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>648506.250945066</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648506.250945066</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>648506.250945066</v>
+        <v>637737.4940600011</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>648506.250945066</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176756</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176757</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="K2" t="n">
-        <v>800515.7256176772</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176763</v>
-      </c>
       <c r="O2" t="n">
-        <v>800515.7256176773</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>3.410864337638486e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818177</v>
+      </c>
+      <c r="C4" t="n">
         <v>92183.89891818175</v>
       </c>
-      <c r="C4" t="n">
-        <v>92183.89891818179</v>
-      </c>
       <c r="D4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683034</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>20987.72340992385</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.72340992384</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992385</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.7234099239</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.7234099239</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26479,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728346.8595894919</v>
+        <v>-728346.8595894914</v>
       </c>
       <c r="C6" t="n">
-        <v>600397.8861381006</v>
+        <v>600397.8861381003</v>
       </c>
       <c r="D6" t="n">
-        <v>600397.8861381012</v>
+        <v>600397.8861381009</v>
       </c>
       <c r="E6" t="n">
-        <v>347436.0789196625</v>
+        <v>347436.0789196632</v>
       </c>
       <c r="F6" t="n">
-        <v>672848.540727018</v>
+        <v>672848.5407270184</v>
       </c>
       <c r="G6" t="n">
+        <v>672848.5407270183</v>
+      </c>
+      <c r="H6" t="n">
         <v>672848.5407270186</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>672848.5407270183</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>455317.3383297405</v>
+      </c>
+      <c r="K6" t="n">
+        <v>672848.5407270179</v>
+      </c>
+      <c r="L6" t="n">
+        <v>672848.5407270183</v>
+      </c>
+      <c r="M6" t="n">
+        <v>587793.5127915062</v>
+      </c>
+      <c r="N6" t="n">
         <v>672848.5407270184</v>
       </c>
-      <c r="J6" t="n">
-        <v>455317.3383297407</v>
-      </c>
-      <c r="K6" t="n">
-        <v>656936.1683602062</v>
-      </c>
-      <c r="L6" t="n">
-        <v>676363.8863538378</v>
-      </c>
-      <c r="M6" t="n">
-        <v>591308.8584183259</v>
-      </c>
-      <c r="N6" t="n">
-        <v>676363.8863538371</v>
-      </c>
       <c r="O6" t="n">
-        <v>676363.886353838</v>
+        <v>672848.5407270179</v>
       </c>
       <c r="P6" t="n">
-        <v>672848.5407270181</v>
+        <v>672848.5407270179</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26790,28 +26792,28 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>252.7922849366198</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>115.5580087566162</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.0742887270139</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>57.23169028657259</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>66.54216182877371</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>94.58829630063937</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,10 +27788,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>16.63482316068664</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>47.84266165489893</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>92.99869925319447</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>30.71219984759387</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>52.77216054947202</v>
       </c>
       <c r="S10" t="n">
-        <v>173.6935659270466</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29809,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753698</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>240.446970176038</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>399.4395445221144</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>302.3396059822671</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,16 +33031,16 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33047,7 +33049,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33266,28 +33268,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647489</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,31 +33502,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551095</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>270.3182595810207</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33743,25 +33745,25 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868571</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270658</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,31 +33976,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>595.3275373121701</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,25 +34219,25 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647489</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>211.3773391483997</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,31 +34450,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>314.1059622342723</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532615</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>101.8925903961638</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>265.4651371077842</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>163.7852262023929</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36677,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427306</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>37.76383318075054</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3364854949992</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648388</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410443</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648388</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288368</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427306</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>176.2645232599133</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3834841.137589307</v>
+        <v>3830828.527575316</v>
       </c>
     </row>
     <row r="7">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>83.41943806107069</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>270.6799298994374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>132.5373350448693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346968</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>181.9348232923732</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>254.6526724167736</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039625</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>202.9141261154826</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>147.2339392611591</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>201.609065134126</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>36.15999212057531</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701367</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998724</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187851</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.17988875728673</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>243.1373908222617</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>61.17550840396338</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.1513727793246</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>71.79687029691084</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>41.33703994143053</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.799772605717069</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>24.83266606353155</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1685.375546116516</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>2004.539063190924</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1909.743070445501</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>1909.743070445501</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>1759.626431033165</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1611.713337450772</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>3191.729725604252</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3191.729725604252</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>2902.626858729896</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>2647.942370524009</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W4" t="n">
-        <v>2358.525200487048</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X4" t="n">
-        <v>2130.535649589031</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1909.743070445501</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>828.5436145009811</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>470.2779158942306</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>84.48966329598636</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2700.479717012521</v>
       </c>
       <c r="W5" t="n">
-        <v>2421.049596543812</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X5" t="n">
-        <v>2047.583838282732</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>1584.105971505515</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>457.9680739783734</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>457.9680739783734</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1632.500327093008</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1632.500327093008</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1377.815838887121</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1088.39866885016</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>860.4091179521432</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>639.6165388086131</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1892.963660013483</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1524.001143073071</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1524.001143073071</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>1138.212890474827</v>
+        <v>268.2622120761617</v>
       </c>
       <c r="F8" t="n">
-        <v>727.2269856852192</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>312.1545355302157</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013483</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1890.769303522255</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1699.083419349081</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1699.083419349081</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1409.980552474725</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1155.296064268838</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318776</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681612</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5369,16 +5369,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>565.7099969556945</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>417.7969033733013</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>417.7969033733013</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,16 +5779,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773688</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>264.0500279773688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>96.85392869224876</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>96.85392869224876</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,7 +6244,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756267</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.896109690901</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021788</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756786</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996073</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.972636491141</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647286</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368217</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>481.4479471244859</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420928</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336516</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949683</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703119</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>526.565882642405</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121652</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121652</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121652</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876697</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>66.34424953498211</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>43.04708356698248</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>78.25894333073141</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>106.0713126946645</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.43328057277014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>73.62417772602041</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>107.2784330767818</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405068</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>123.7828069546808</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637737.494060001</v>
+        <v>637737.4940600011</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>637737.4940600011</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637737.4940600011</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637737.4940600011</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637737.494060001</v>
+        <v>637737.4940600011</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637737.4940600011</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176756</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.725617676</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176756</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977558</v>
@@ -26331,31 +26331,31 @@
         <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="K2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>3.539624622135307e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410864337638486e-10</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683032</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26447,10 +26447,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26496,13 +26496,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728346.8595894914</v>
+        <v>-728346.8595894916</v>
       </c>
       <c r="C6" t="n">
-        <v>600397.8861381003</v>
+        <v>600397.8861381006</v>
       </c>
       <c r="D6" t="n">
-        <v>600397.8861381009</v>
+        <v>600397.8861381008</v>
       </c>
       <c r="E6" t="n">
-        <v>347436.0789196632</v>
+        <v>347088.6996653059</v>
       </c>
       <c r="F6" t="n">
-        <v>672848.5407270184</v>
+        <v>672501.1614726617</v>
       </c>
       <c r="G6" t="n">
-        <v>672848.5407270183</v>
+        <v>672501.1614726613</v>
       </c>
       <c r="H6" t="n">
-        <v>672848.5407270186</v>
+        <v>672501.1614726611</v>
       </c>
       <c r="I6" t="n">
-        <v>672848.5407270183</v>
+        <v>672501.1614726615</v>
       </c>
       <c r="J6" t="n">
-        <v>455317.3383297405</v>
+        <v>454969.9590753838</v>
       </c>
       <c r="K6" t="n">
-        <v>672848.5407270179</v>
+        <v>672501.1614726612</v>
       </c>
       <c r="L6" t="n">
-        <v>672848.5407270183</v>
+        <v>672501.1614726612</v>
       </c>
       <c r="M6" t="n">
-        <v>587793.5127915062</v>
+        <v>587446.1335371493</v>
       </c>
       <c r="N6" t="n">
-        <v>672848.5407270184</v>
+        <v>672501.1614726614</v>
       </c>
       <c r="O6" t="n">
-        <v>672848.5407270179</v>
+        <v>672501.1614726615</v>
       </c>
       <c r="P6" t="n">
-        <v>672848.5407270179</v>
+        <v>672501.1614726613</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>298.5109320111911</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>115.5580087566162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>57.23169028657259</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>75.5034079543403</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>69.0603486665288</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>94.58829630063937</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>16.63482316068664</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>259.6421064805523</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>92.99869925319447</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>52.77216054947202</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28098,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-8.85892113493714e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.735792199630443e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28338,13 +28338,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.534772309241816e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28815,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>338.6542681503486</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647489</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551095</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270658</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>595.3275373121701</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647489</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532615</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>196.0580237059041</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427306</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075054</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410443</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9858252288368</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427306</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312432</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3830828.527575316</v>
+        <v>3832589.0578781</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>83.41943806107069</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>208.1826852126413</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>75.41231307284865</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>150.2062474346968</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>4.791624857390198</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>181.9348232923732</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>13.02719212039625</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>307.0009208268447</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>147.2339392611591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701367</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>197.5531614304986</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>111.5512144998724</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187851</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977265</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>31.26260713376563</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>107.4021082756242</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>91.89996056624796</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116516</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.413029176105</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.413029176105</v>
+        <v>1413.152313590629</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1027.364060992385</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>616.3781562027771</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180638</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672847</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1197.506131441393</v>
+        <v>1624.638712032432</v>
       </c>
       <c r="C5" t="n">
-        <v>828.5436145009811</v>
+        <v>1255.67619509202</v>
       </c>
       <c r="D5" t="n">
-        <v>470.2779158942306</v>
+        <v>897.4104964852695</v>
       </c>
       <c r="E5" t="n">
-        <v>84.48966329598636</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678289</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
         <v>66.51211643218343</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>3031.542604356091</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2700.479717012521</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2347.711061742406</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>1974.245303481326</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.105971505515</v>
+        <v>1624.638712032432</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4649,25 +4649,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761617</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="9">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1997.513897577973</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681612</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5779,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5934,22 +5934,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
         <v>974.1018203925706</v>
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,16 +6460,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6478,13 +6478,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,13 +6721,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6837,25 +6837,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,7 +6891,7 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
         <v>1491.508541327549</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>19.85228889678962</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>114.1584408891647</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>114.1584408891656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>32.89260457059963</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>125.5054897610403</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637737.4940600011</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637737.4940600011</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>637737.494060001</v>
+        <v>637737.4940600011</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818164</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683032</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26447,7 +26447,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728346.8595894916</v>
+        <v>-728346.8595894922</v>
       </c>
       <c r="C6" t="n">
-        <v>600397.8861381006</v>
+        <v>600397.8861381005</v>
       </c>
       <c r="D6" t="n">
-        <v>600397.8861381008</v>
+        <v>600397.886138101</v>
       </c>
       <c r="E6" t="n">
-        <v>347088.6996653059</v>
+        <v>347401.3409942276</v>
       </c>
       <c r="F6" t="n">
-        <v>672501.1614726617</v>
+        <v>672813.8028015827</v>
       </c>
       <c r="G6" t="n">
-        <v>672501.1614726613</v>
+        <v>672813.8028015827</v>
       </c>
       <c r="H6" t="n">
-        <v>672501.1614726611</v>
+        <v>672813.8028015825</v>
       </c>
       <c r="I6" t="n">
-        <v>672501.1614726615</v>
+        <v>672813.8028015827</v>
       </c>
       <c r="J6" t="n">
-        <v>454969.9590753838</v>
+        <v>455282.600404305</v>
       </c>
       <c r="K6" t="n">
-        <v>672501.1614726612</v>
+        <v>672813.8028015827</v>
       </c>
       <c r="L6" t="n">
-        <v>672501.1614726612</v>
+        <v>672813.8028015826</v>
       </c>
       <c r="M6" t="n">
-        <v>587446.1335371493</v>
+        <v>587758.7748660711</v>
       </c>
       <c r="N6" t="n">
-        <v>672501.1614726614</v>
+        <v>672813.8028015827</v>
       </c>
       <c r="O6" t="n">
-        <v>672501.1614726615</v>
+        <v>672813.8028015825</v>
       </c>
       <c r="P6" t="n">
-        <v>672501.1614726613</v>
+        <v>672813.8028015825</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>298.5109320111911</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>202.7390404408121</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>210.7995251327642</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>75.5034079543403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>377.1387452148716</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>69.0603486665288</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>83.32522828944184</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>75.73292083663591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>259.6421064805523</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28098,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.85892113493714e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.735792199630443e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28338,13 +28338,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28815,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
